--- a/FSM.xlsx
+++ b/FSM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BDC5DB-D011-4CDF-A4D9-052CCCA2363F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5A3ECF-0B11-440D-932F-3B3D0D1C0E94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5484" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,12 +226,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +235,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,495 +535,499 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="4"/>
       <c r="N1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="4"/>
       <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="4"/>
       <c r="N3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="4"/>
       <c r="N4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="4"/>
       <c r="N5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>4</v>
-      </c>
-      <c r="I6" s="3">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1">
+        <v>6</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3">
-        <v>6</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8</v>
-      </c>
-      <c r="F10" s="3">
-        <v>9</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9</v>
-      </c>
-      <c r="H10" s="3">
-        <v>9</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>11</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11</v>
-      </c>
-      <c r="G12" s="3">
-        <v>11</v>
-      </c>
-      <c r="H12" s="3">
-        <v>11</v>
-      </c>
-      <c r="I12" s="3">
-        <v>11</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
+      <c r="D14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="3">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="E14" s="1">
         <v>13</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="1">
         <v>13</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="1">
         <v>13</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="1">
         <v>13</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="1">
         <v>13</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K3:L3"/>
@@ -1035,10 +1039,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FSM.xlsx
+++ b/FSM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5A3ECF-0B11-440D-932F-3B3D0D1C0E94}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003BC2BD-2211-43E9-88AC-A0A8A130D49A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5484" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Curr. State</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,10 @@
   </si>
   <si>
     <t>sp: space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +152,16 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -224,11 +238,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,12 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +540,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -535,29 +550,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="K1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="K1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="6"/>
       <c r="N1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -582,17 +597,17 @@
       <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="6"/>
       <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -618,10 +633,10 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="6"/>
       <c r="N3" t="s">
         <v>25</v>
       </c>
@@ -654,16 +669,16 @@
       <c r="I4" s="1">
         <v>3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="6"/>
       <c r="N4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -690,10 +705,10 @@
       <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="6"/>
       <c r="N5" t="s">
         <v>27</v>
       </c>
@@ -726,13 +741,13 @@
       <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -759,10 +774,10 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -792,13 +807,13 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -825,10 +840,10 @@
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -858,13 +873,13 @@
       <c r="I10" s="1">
         <v>9</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -891,10 +906,10 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -924,13 +939,13 @@
       <c r="I12" s="1">
         <v>11</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -957,10 +972,10 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -994,7 +1009,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -1024,11 +1039,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="K13:L13"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
@@ -1039,6 +1049,11 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
